--- a/Mercedario_Recetas/Formato de revision.xlsx
+++ b/Mercedario_Recetas/Formato de revision.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anton\OneDrive\Documentos\GitHub\Ingenieria_de_requisitos\Mercedario_Recetas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0675C21-8D03-4F3E-89B4-36FE8D0B3358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF01120-0BC8-454D-878F-E0710BD0465F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -78,169 +78,169 @@
 -Requisito: El sistema debe garantizar que todos los datos transmitidos entre las máquinas clientes y el servidor estén protegidos contra accesos no autorizados.</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF131413"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Defect ID</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF131413"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Defect description</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF131413"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Reference to  process  for
+the defect</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF131413"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Defect origin</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF131413"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Closed on</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF131413"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Status
+(open / closed)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF131413"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Corrective action implemented</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF131413"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Defect IDs covered by this corrective action</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF131413"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Any comments</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF131413"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Signature of the author:
+Date of signature:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF131413"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Defect closure actions (to be filled in by the lead reviewer)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF131413"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>I have verified and found that all the defects described above are closed satisfactorily, except the following defects, which are retracted or pending
+1.
+2.
+3.
+Signature of the lead reviewer: Date of signature:</t>
+    </r>
+  </si>
+  <si>
+    <t>El requisito no es funcional</t>
+  </si>
+  <si>
+    <t>El requisito se encuentra implicito en el texto</t>
+  </si>
+  <si>
+    <t>CLOSED</t>
+  </si>
+  <si>
     <t xml:space="preserve">Review Feedback Report
 1.     Project name:Especificación de Requisitos de Software para Mercedario Recetas
 2.     Name of the artifact being reviewed, with version number: SRS 1.0
 3.     Name(s) of the reviewer(s): Nicolas Delgado
 4.     Name of the author of the artifact:Antonio Parra, Cristian Orbes, Sebastián Ramos
-5.     Date(s) on which the review is conducted: 28/09/2023
+5.     Date(s) on which the review is conducted: 8/10/2023
 6.     Type of review: Independent </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF131413"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Defect ID</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF131413"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Defect description</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF131413"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Reference to  process  for
-the defect</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF131413"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Defect origin</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF131413"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Closed on</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF131413"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Status
-(open / closed)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF131413"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Corrective action implemented</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF131413"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Defect IDs covered by this corrective action</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF131413"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Any comments</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF131413"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Signature of the author:
-Date of signature:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF131413"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Defect closure actions (to be filled in by the lead reviewer)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF131413"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>I have verified and found that all the defects described above are closed satisfactorily, except the following defects, which are retracted or pending
-1.
-2.
-3.
-Signature of the lead reviewer: Date of signature:</t>
-    </r>
-  </si>
-  <si>
-    <t>El requisito no es funcional</t>
-  </si>
-  <si>
-    <t>El requisito se encuentra implicito en el texto</t>
-  </si>
-  <si>
-    <t>CLOSED</t>
   </si>
 </sst>
 </file>
@@ -447,6 +447,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
@@ -456,12 +471,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -477,19 +486,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -906,121 +906,121 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14" style="5" customWidth="1"/>
-    <col min="2" max="2" width="34.1640625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="11" style="5" customWidth="1"/>
-    <col min="4" max="4" width="8" style="5" customWidth="1"/>
-    <col min="5" max="6" width="13.83203125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="3.33203125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="17" style="5" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" style="5" customWidth="1"/>
-    <col min="10" max="16384" width="9.33203125" style="5"/>
+    <col min="1" max="1" width="14" style="2" customWidth="1"/>
+    <col min="2" max="2" width="34.1640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11" style="2" customWidth="1"/>
+    <col min="4" max="4" width="8" style="2" customWidth="1"/>
+    <col min="5" max="6" width="13.83203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="3.33203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="17" style="2" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9.33203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="4"/>
+      <c r="A1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="9"/>
     </row>
     <row r="2" spans="1:9" ht="30.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="11"/>
+      <c r="E2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="10"/>
-      <c r="I2" s="11"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="14"/>
     </row>
     <row r="3" spans="1:9" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="16">
+      <c r="D3" s="16"/>
+      <c r="E3" s="6">
         <v>45197</v>
       </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="15"/>
-      <c r="I3" s="11"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="16"/>
+      <c r="I3" s="14"/>
     </row>
     <row r="4" spans="1:9" ht="135.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="16">
+      <c r="D4" s="16"/>
+      <c r="E4" s="6">
         <v>45197</v>
       </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="15"/>
-      <c r="I4" s="11"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="16"/>
+      <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:9" ht="156" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="16">
+      <c r="D5" s="16"/>
+      <c r="E5" s="6">
         <v>45197</v>
       </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="15"/>
-      <c r="I5" s="11"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="16"/>
+      <c r="I5" s="14"/>
     </row>
     <row r="6" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
@@ -1037,24 +1037,24 @@
     </row>
     <row r="7" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" s="21"/>
       <c r="C7" s="22"/>
       <c r="D7" s="23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E7" s="24"/>
       <c r="F7" s="24"/>
       <c r="G7" s="25"/>
       <c r="H7" s="26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I7" s="27"/>
     </row>
     <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="29"/>
       <c r="C8" s="30"/>
@@ -1069,7 +1069,7 @@
     </row>
     <row r="9" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" s="29"/>
       <c r="C9" s="30"/>
@@ -1084,7 +1084,7 @@
     </row>
     <row r="10" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="29"/>
       <c r="C10" s="30"/>
@@ -1098,8 +1098,8 @@
       <c r="I10" s="30"/>
     </row>
     <row r="11" spans="1:9" ht="162" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
-        <v>19</v>
+      <c r="A11" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="B11" s="31"/>
       <c r="C11" s="31"/>
@@ -1108,10 +1108,24 @@
       <c r="F11" s="31"/>
       <c r="G11" s="31"/>
       <c r="H11" s="31"/>
-      <c r="I11" s="8"/>
+      <c r="I11" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A11:I11"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="H8:I8"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="G2:H2"/>
@@ -1122,20 +1136,6 @@
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="G5:H5"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="A11:I11"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="H10:I10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
